--- a/InputData/elec/BDSBaPCF/Boolean Do Suppliers Bid at Peak Capacity Factors.xlsx
+++ b/InputData/elec/BDSBaPCF/Boolean Do Suppliers Bid at Peak Capacity Factors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/elec/bdsbapcf/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\Massachusetts\MA-eps\InputData\elec\BDSBaPCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B11859D-DA9A-2645-998A-DEBA3A0778F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD06E65D-34F8-4ABA-96CB-2E78D6FC3D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="23960" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="12735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -530,11 +530,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,7 +542,7 @@
         <v>44307</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -550,82 +550,82 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -642,22 +642,22 @@
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -665,7 +665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -673,7 +673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -681,7 +681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -713,15 +713,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -754,7 +754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -781,13 +781,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>34</v>
       </c>
       <c r="B17">
         <f>B9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
